--- a/data/trans_orig/IP2903-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2903-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F479CA2E-5D19-4909-944A-5F3472DA35BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FF49026-D161-4D32-BBCF-E3106E242032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B25712FF-89CA-4FEA-BC6F-065E830F1395}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B6E8272-8AF9-4329-BD49-ADC48940CE48}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="488">
   <si>
     <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2007 (Tasa respuesta: 96,44%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Solo biberon</t>
@@ -76,28 +76,28 @@
     <t>15,11%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>33,27%</t>
   </si>
   <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
   </si>
   <si>
     <t>23,99%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
   </si>
   <si>
     <t>Pecho/biberon</t>
@@ -106,28 +106,28 @@
     <t>24,6%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
   </si>
   <si>
     <t>16,8%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
   </si>
   <si>
     <t>Pecho</t>
@@ -136,1366 +136,1372 @@
     <t>60,29%</t>
   </si>
   <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
   </si>
   <si>
     <t>55,22%</t>
   </si>
   <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
   </si>
   <si>
     <t>33,03%</t>
   </si>
   <si>
-    <t>28,2%</t>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2012 (Tasa respuesta: 97,86%)</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
   </si>
   <si>
     <t>38,05%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2016 (Tasa respuesta: 97,37%)</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2012 (Tasa respuesta: 97,86%)</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2015 (Tasa respuesta: 97,37%)</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>44,88%</t>
   </si>
   <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
   </si>
   <si>
     <t>42,94%</t>
   </si>
   <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +1913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3626E5F-3F9D-45C0-A73D-82066E7514AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F788697F-440B-4FF4-B0C5-403E721C4550}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2446,10 +2452,10 @@
         <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>98</v>
@@ -2458,13 +2464,13 @@
         <v>61544</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>211</v>
@@ -2473,13 +2479,13 @@
         <v>136377</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2500,13 @@
         <v>47657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -2509,13 +2515,13 @@
         <v>38135</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>134</v>
@@ -2524,13 +2530,13 @@
         <v>85792</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2551,13 @@
         <v>86222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -2560,13 +2566,13 @@
         <v>90366</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>276</v>
@@ -2575,13 +2581,13 @@
         <v>176589</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,7 +2643,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2649,13 +2655,13 @@
         <v>43040</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -2664,13 +2670,13 @@
         <v>46247</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -2679,13 +2685,13 @@
         <v>89287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2706,13 @@
         <v>39733</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -2715,13 +2721,13 @@
         <v>26924</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -2730,13 +2736,13 @@
         <v>66657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2757,13 @@
         <v>62216</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>104</v>
@@ -2766,13 +2772,13 @@
         <v>63443</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>200</v>
@@ -2781,13 +2787,13 @@
         <v>125660</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2849,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2861,13 @@
         <v>60214</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -2870,13 +2876,13 @@
         <v>65484</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -2885,13 +2891,13 @@
         <v>125698</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2912,13 @@
         <v>42934</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>42</v>
@@ -2921,13 +2927,13 @@
         <v>32454</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>104</v>
@@ -2936,13 +2942,13 @@
         <v>75388</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2963,13 @@
         <v>93325</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>130</v>
@@ -2972,13 +2978,13 @@
         <v>99006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>269</v>
@@ -2987,13 +2993,13 @@
         <v>192331</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3067,13 @@
         <v>226021</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>321</v>
@@ -3076,13 +3082,13 @@
         <v>213200</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>662</v>
@@ -3091,13 +3097,13 @@
         <v>439222</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3118,13 @@
         <v>164597</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>202</v>
@@ -3127,13 +3133,13 @@
         <v>133750</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>448</v>
@@ -3142,13 +3148,13 @@
         <v>298347</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3169,13 @@
         <v>305253</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>459</v>
@@ -3178,13 +3184,13 @@
         <v>309256</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>919</v>
@@ -3193,13 +3199,13 @@
         <v>614509</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,7 +3261,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3276,7 +3282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EA827E-2A1F-4C12-BC30-2B72C1047148}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9701C588-1D46-4437-9899-23D6D807B74F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3293,7 +3299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3400,13 +3406,13 @@
         <v>7749</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3415,13 +3421,13 @@
         <v>6982</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3430,13 +3436,13 @@
         <v>14731</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3457,13 @@
         <v>3342</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3466,13 +3472,13 @@
         <v>3555</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -3481,13 +3487,13 @@
         <v>6897</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3508,13 @@
         <v>14365</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -3517,13 +3523,13 @@
         <v>11836</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -3532,13 +3538,13 @@
         <v>26201</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3612,13 @@
         <v>39012</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
@@ -3621,13 +3627,13 @@
         <v>36076</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>105</v>
@@ -3636,13 +3642,13 @@
         <v>75088</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,13 +3663,13 @@
         <v>27513</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -3672,13 +3678,13 @@
         <v>15256</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
@@ -3687,13 +3693,13 @@
         <v>42769</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3714,13 @@
         <v>56334</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -3723,13 +3729,13 @@
         <v>63408</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>169</v>
@@ -3738,13 +3744,13 @@
         <v>119741</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3818,13 @@
         <v>84286</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="H12" s="7">
         <v>123</v>
@@ -3827,13 +3833,13 @@
         <v>78383</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M12" s="7">
         <v>247</v>
@@ -3842,13 +3848,13 @@
         <v>162669</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3869,13 @@
         <v>47492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -3878,13 +3884,13 @@
         <v>32814</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -3893,13 +3899,13 @@
         <v>80306</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3920,13 @@
         <v>85338</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>137</v>
@@ -3929,13 +3935,13 @@
         <v>89287</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
@@ -3944,13 +3950,13 @@
         <v>174625</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,7 +4012,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4018,13 +4024,13 @@
         <v>60553</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
@@ -4033,13 +4039,13 @@
         <v>58461</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>187</v>
@@ -4048,13 +4054,13 @@
         <v>119014</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4075,13 @@
         <v>31332</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -4084,13 +4090,13 @@
         <v>28432</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>95</v>
@@ -4099,13 +4105,13 @@
         <v>59763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4126,13 @@
         <v>72318</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
@@ -4135,13 +4141,13 @@
         <v>65033</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
@@ -4150,13 +4156,13 @@
         <v>137351</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,7 +4218,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4224,13 +4230,13 @@
         <v>85934</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>105</v>
@@ -4239,13 +4245,13 @@
         <v>79806</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>223</v>
@@ -4254,13 +4260,13 @@
         <v>165740</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4281,13 @@
         <v>45738</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H21" s="7">
         <v>54</v>
@@ -4290,13 +4296,13 @@
         <v>41168</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M21" s="7">
         <v>117</v>
@@ -4305,13 +4311,13 @@
         <v>86906</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>300</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4332,13 @@
         <v>73335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H22" s="7">
         <v>113</v>
@@ -4341,13 +4347,13 @@
         <v>87110</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>62</v>
       </c>
       <c r="M22" s="7">
         <v>210</v>
@@ -4356,13 +4362,13 @@
         <v>160445</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4436,13 @@
         <v>277534</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H24" s="7">
         <v>378</v>
@@ -4445,13 +4451,13 @@
         <v>259708</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M24" s="7">
         <v>778</v>
@@ -4460,13 +4466,13 @@
         <v>537242</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4487,13 @@
         <v>155416</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H25" s="7">
         <v>174</v>
@@ -4496,13 +4502,13 @@
         <v>121224</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>399</v>
@@ -4511,13 +4517,13 @@
         <v>276641</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4538,13 @@
         <v>301690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H26" s="7">
         <v>453</v>
@@ -4547,13 +4553,13 @@
         <v>316674</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M26" s="7">
         <v>877</v>
@@ -4562,13 +4568,13 @@
         <v>618363</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,7 +4630,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4645,7 +4651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5AF3F6-D0A0-4DEC-9679-10C277A14258}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7D5C8C-04A8-46CD-A334-4D49DEED4B5D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4662,7 +4668,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4769,13 +4775,13 @@
         <v>6986</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4784,13 +4790,13 @@
         <v>9215</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4799,13 +4805,13 @@
         <v>16201</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4826,13 @@
         <v>1086</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4835,13 +4841,13 @@
         <v>2616</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4850,13 +4856,13 @@
         <v>3701</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4877,13 @@
         <v>17503</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4886,13 +4892,13 @@
         <v>9652</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>249</v>
+        <v>359</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>358</v>
+        <v>161</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M6" s="7">
         <v>31</v>
@@ -4901,13 +4907,13 @@
         <v>27155</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>234</v>
+        <v>362</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4981,13 @@
         <v>30588</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>44</v>
@@ -4990,13 +4996,13 @@
         <v>29695</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>86</v>
@@ -5005,13 +5011,13 @@
         <v>60283</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5032,13 @@
         <v>36159</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="H9" s="7">
         <v>39</v>
@@ -5047,7 +5053,7 @@
         <v>375</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>103</v>
+        <v>376</v>
       </c>
       <c r="M9" s="7">
         <v>87</v>
@@ -5056,7 +5062,7 @@
         <v>63066</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>376</v>
+        <v>102</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>377</v>
@@ -5095,10 +5101,10 @@
         <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -5107,13 +5113,13 @@
         <v>103259</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5187,13 @@
         <v>66110</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H12" s="7">
         <v>93</v>
@@ -5196,13 +5202,13 @@
         <v>58458</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M12" s="7">
         <v>192</v>
@@ -5211,13 +5217,13 @@
         <v>124568</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5238,13 @@
         <v>59142</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -5247,13 +5253,13 @@
         <v>57610</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>399</v>
+        <v>113</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M13" s="7">
         <v>181</v>
@@ -5262,13 +5268,13 @@
         <v>116752</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5289,13 @@
         <v>93876</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H14" s="7">
         <v>141</v>
@@ -5298,13 +5304,13 @@
         <v>87161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>278</v>
@@ -5313,13 +5319,13 @@
         <v>181037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>411</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,7 +5381,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5417,10 +5423,10 @@
         <v>96660</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>419</v>
@@ -5441,10 +5447,10 @@
         <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -5453,13 +5459,13 @@
         <v>47449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
@@ -5468,13 +5474,13 @@
         <v>99132</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5495,13 @@
         <v>60105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
@@ -5504,13 +5510,13 @@
         <v>59202</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M18" s="7">
         <v>187</v>
@@ -5519,13 +5525,13 @@
         <v>119307</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,7 +5587,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5593,13 +5599,13 @@
         <v>46545</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -5608,13 +5614,13 @@
         <v>49872</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>133</v>
@@ -5623,13 +5629,13 @@
         <v>96417</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5650,13 @@
         <v>50139</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H21" s="7">
         <v>89</v>
@@ -5659,13 +5665,13 @@
         <v>64477</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M21" s="7">
         <v>162</v>
@@ -5674,13 +5680,13 @@
         <v>114616</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5701,13 @@
         <v>101281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H22" s="7">
         <v>117</v>
@@ -5710,13 +5716,13 @@
         <v>88020</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M22" s="7">
         <v>258</v>
@@ -5725,13 +5731,13 @@
         <v>189301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,13 +5805,13 @@
         <v>200551</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>465</v>
+        <v>260</v>
       </c>
       <c r="H24" s="7">
         <v>291</v>
@@ -5814,13 +5820,13 @@
         <v>193578</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>468</v>
+        <v>59</v>
       </c>
       <c r="M24" s="7">
         <v>581</v>
@@ -5850,13 +5856,13 @@
         <v>198209</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>472</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H25" s="7">
         <v>302</v>
@@ -5865,13 +5871,13 @@
         <v>199058</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>475</v>
+        <v>376</v>
       </c>
       <c r="M25" s="7">
         <v>590</v>
@@ -5880,13 +5886,13 @@
         <v>397267</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>101</v>
+        <v>476</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>57</v>
+        <v>477</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5907,13 @@
         <v>324634</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H26" s="7">
         <v>443</v>
@@ -5916,13 +5922,13 @@
         <v>295425</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M26" s="7">
         <v>899</v>
@@ -5931,13 +5937,13 @@
         <v>620059</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,7 +5999,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2903-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2903-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FF49026-D161-4D32-BBCF-E3106E242032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B18D298-25B5-45B6-8393-063C3A39ABDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B6E8272-8AF9-4329-BD49-ADC48940CE48}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F6503E00-FA15-4D95-A4F7-AF0A2DA70243}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="408">
   <si>
     <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2007 (Tasa respuesta: 96,44%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,1441 +67,1201 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Solo biberon</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>Pecho/biberon</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>Pecho</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2012 (Tasa respuesta: 97,86%)</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>Pecho/biberon</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>Pecho</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2016 (Tasa respuesta: 97,37%)</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
   </si>
   <si>
     <t>26,21%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2012 (Tasa respuesta: 97,86%)</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2016 (Tasa respuesta: 97,37%)</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
   </si>
   <si>
     <t>44,88%</t>
   </si>
   <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
   </si>
 </sst>
 </file>
@@ -1913,8 +1673,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F788697F-440B-4FF4-B0C5-403E721C4550}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F00C860-8868-41DD-9A64-3E18BCB0DF05}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2031,10 +1791,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7">
-        <v>3477</v>
+        <v>39926</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2046,10 +1806,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="I4" s="7">
-        <v>7323</v>
+        <v>47933</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2061,10 +1821,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="N4" s="7">
-        <v>10799</v>
+        <v>87859</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2082,10 +1842,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7">
-        <v>5658</v>
+        <v>36237</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2097,10 +1857,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="I5" s="7">
-        <v>3698</v>
+        <v>34272</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2112,10 +1872,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="N5" s="7">
-        <v>9355</v>
+        <v>70509</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2133,10 +1893,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7">
-        <v>13868</v>
+        <v>56440</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2148,10 +1908,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>10990</v>
+        <v>63488</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2163,10 +1923,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="N6" s="7">
-        <v>24858</v>
+        <v>119929</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2184,10 +1944,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D7" s="7">
-        <v>23003</v>
+        <v>132603</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2199,10 +1959,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="I7" s="7">
-        <v>22010</v>
+        <v>145693</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2214,10 +1974,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>58</v>
+        <v>410</v>
       </c>
       <c r="N7" s="7">
-        <v>45012</v>
+        <v>278297</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2237,10 +1997,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="D8" s="7">
-        <v>44457</v>
+        <v>61544</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2252,10 +2012,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="I8" s="7">
-        <v>32603</v>
+        <v>74833</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2267,10 +2027,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="N8" s="7">
-        <v>77060</v>
+        <v>136377</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -2288,10 +2048,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
-        <v>28614</v>
+        <v>38135</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2303,10 +2063,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>32540</v>
+        <v>47657</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2318,10 +2078,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="N9" s="7">
-        <v>61153</v>
+        <v>85792</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2339,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="D10" s="7">
-        <v>49620</v>
+        <v>90366</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2354,10 +2114,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="I10" s="7">
-        <v>45451</v>
+        <v>86222</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2369,10 +2129,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="N10" s="7">
-        <v>95071</v>
+        <v>176589</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2390,10 +2150,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>186</v>
+        <v>304</v>
       </c>
       <c r="D11" s="7">
-        <v>122691</v>
+        <v>190045</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -2405,10 +2165,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>166</v>
+        <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>110594</v>
+        <v>208713</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2420,10 +2180,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>352</v>
+        <v>621</v>
       </c>
       <c r="N11" s="7">
-        <v>233284</v>
+        <v>398758</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -2443,10 +2203,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D12" s="7">
-        <v>74833</v>
+        <v>46247</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2458,10 +2218,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="I12" s="7">
-        <v>61544</v>
+        <v>43040</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2473,10 +2233,10 @@
         <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>136377</v>
+        <v>89287</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -2494,10 +2254,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>47657</v>
+        <v>26924</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2509,10 +2269,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I13" s="7">
-        <v>38135</v>
+        <v>39733</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2524,10 +2284,10 @@
         <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="N13" s="7">
-        <v>85792</v>
+        <v>66657</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2545,10 +2305,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D14" s="7">
-        <v>86222</v>
+        <v>63443</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2560,10 +2320,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="I14" s="7">
-        <v>90366</v>
+        <v>62216</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2575,10 +2335,10 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="N14" s="7">
-        <v>176589</v>
+        <v>125660</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -2596,10 +2356,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D15" s="7">
-        <v>208713</v>
+        <v>136614</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -2611,10 +2371,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>190045</v>
+        <v>144990</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2626,10 +2386,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>621</v>
+        <v>452</v>
       </c>
       <c r="N15" s="7">
-        <v>398758</v>
+        <v>281604</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -2649,10 +2409,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D16" s="7">
-        <v>43040</v>
+        <v>65484</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -2664,10 +2424,10 @@
         <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I16" s="7">
-        <v>46247</v>
+        <v>60214</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
@@ -2679,10 +2439,10 @@
         <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="N16" s="7">
-        <v>89287</v>
+        <v>125698</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>104</v>
@@ -2700,10 +2460,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>39733</v>
+        <v>32454</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>107</v>
@@ -2715,10 +2475,10 @@
         <v>109</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="I17" s="7">
-        <v>26924</v>
+        <v>42934</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>110</v>
@@ -2730,10 +2490,10 @@
         <v>112</v>
       </c>
       <c r="M17" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N17" s="7">
-        <v>66657</v>
+        <v>75388</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>113</v>
@@ -2751,10 +2511,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D18" s="7">
-        <v>62216</v>
+        <v>99006</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>116</v>
@@ -2766,10 +2526,10 @@
         <v>118</v>
       </c>
       <c r="H18" s="7">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="I18" s="7">
-        <v>63443</v>
+        <v>93325</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>119</v>
@@ -2781,10 +2541,10 @@
         <v>121</v>
       </c>
       <c r="M18" s="7">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="N18" s="7">
-        <v>125660</v>
+        <v>192331</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>122</v>
@@ -2802,10 +2562,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="D19" s="7">
-        <v>144990</v>
+        <v>196944</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -2817,10 +2577,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="I19" s="7">
-        <v>136614</v>
+        <v>196474</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2832,10 +2592,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="N19" s="7">
-        <v>281604</v>
+        <v>393418</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2849,55 +2609,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>88</v>
+        <v>321</v>
       </c>
       <c r="D20" s="7">
-        <v>60214</v>
+        <v>213200</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>341</v>
+      </c>
+      <c r="I20" s="7">
+        <v>226021</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H20" s="7">
-        <v>85</v>
-      </c>
-      <c r="I20" s="7">
-        <v>65484</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>662</v>
+      </c>
+      <c r="N20" s="7">
+        <v>439222</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M20" s="7">
-        <v>173</v>
-      </c>
-      <c r="N20" s="7">
-        <v>125698</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,49 +2666,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="D21" s="7">
-        <v>42934</v>
+        <v>133750</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>246</v>
+      </c>
+      <c r="I21" s="7">
+        <v>164597</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="7">
-        <v>42</v>
-      </c>
-      <c r="I21" s="7">
-        <v>32454</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>448</v>
+      </c>
+      <c r="N21" s="7">
+        <v>298347</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M21" s="7">
-        <v>104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>75388</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,49 +2717,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>139</v>
+        <v>459</v>
       </c>
       <c r="D22" s="7">
-        <v>93325</v>
+        <v>309256</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>460</v>
+      </c>
+      <c r="I22" s="7">
+        <v>305253</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H22" s="7">
-        <v>130</v>
-      </c>
-      <c r="I22" s="7">
-        <v>99006</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>919</v>
+      </c>
+      <c r="N22" s="7">
+        <v>614509</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="M22" s="7">
-        <v>269</v>
-      </c>
-      <c r="N22" s="7">
-        <v>192331</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,10 +2768,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>289</v>
+        <v>982</v>
       </c>
       <c r="D23" s="7">
-        <v>196474</v>
+        <v>656206</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3023,10 +2783,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>257</v>
+        <v>1047</v>
       </c>
       <c r="I23" s="7">
-        <v>196944</v>
+        <v>695871</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3038,10 +2798,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>546</v>
+        <v>2029</v>
       </c>
       <c r="N23" s="7">
-        <v>393418</v>
+        <v>1352077</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3054,222 +2814,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>341</v>
-      </c>
-      <c r="D24" s="7">
-        <v>226021</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H24" s="7">
-        <v>321</v>
-      </c>
-      <c r="I24" s="7">
-        <v>213200</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M24" s="7">
-        <v>662</v>
-      </c>
-      <c r="N24" s="7">
-        <v>439222</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>246</v>
-      </c>
-      <c r="D25" s="7">
-        <v>164597</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H25" s="7">
-        <v>202</v>
-      </c>
-      <c r="I25" s="7">
-        <v>133750</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M25" s="7">
-        <v>448</v>
-      </c>
-      <c r="N25" s="7">
-        <v>298347</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>460</v>
-      </c>
-      <c r="D26" s="7">
-        <v>305253</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" s="7">
-        <v>459</v>
-      </c>
-      <c r="I26" s="7">
-        <v>309256</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M26" s="7">
-        <v>919</v>
-      </c>
-      <c r="N26" s="7">
-        <v>614509</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1047</v>
-      </c>
-      <c r="D27" s="7">
-        <v>695871</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>982</v>
-      </c>
-      <c r="I27" s="7">
-        <v>656206</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2029</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1352077</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>179</v>
+      <c r="A24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3282,8 +2835,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9701C588-1D46-4437-9899-23D6D807B74F}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DC5857-5755-4B9A-AF9D-0D71596EA426}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3299,7 +2852,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3400,49 +2953,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D4" s="7">
-        <v>7749</v>
+        <v>43058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="I4" s="7">
-        <v>6982</v>
+        <v>46760</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="N4" s="7">
-        <v>14731</v>
+        <v>89819</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,49 +3004,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>3342</v>
+        <v>18811</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>3555</v>
+        <v>30854</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="N5" s="7">
-        <v>6897</v>
+        <v>49665</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,49 +3055,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D6" s="7">
-        <v>14365</v>
+        <v>75244</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="7">
+        <v>96</v>
+      </c>
+      <c r="I6" s="7">
+        <v>70698</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" s="7">
         <v>199</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H6" s="7">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7">
-        <v>11836</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M6" s="7">
-        <v>30</v>
-      </c>
       <c r="N6" s="7">
-        <v>26201</v>
+        <v>145942</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,10 +3106,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="D7" s="7">
-        <v>25455</v>
+        <v>137113</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3568,10 +3121,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="I7" s="7">
-        <v>22373</v>
+        <v>148313</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3583,10 +3136,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>389</v>
       </c>
       <c r="N7" s="7">
-        <v>47828</v>
+        <v>285426</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3606,49 +3159,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="D8" s="7">
-        <v>39012</v>
+        <v>78383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="I8" s="7">
-        <v>36076</v>
+        <v>84286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
-        <v>105</v>
+        <v>247</v>
       </c>
       <c r="N8" s="7">
-        <v>75088</v>
+        <v>162669</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3657,49 +3210,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>27513</v>
+        <v>32814</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="I9" s="7">
-        <v>15256</v>
+        <v>47492</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="N9" s="7">
-        <v>42769</v>
+        <v>80306</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,49 +3261,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="D10" s="7">
-        <v>56334</v>
+        <v>89287</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="I10" s="7">
-        <v>63408</v>
+        <v>85338</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="N10" s="7">
-        <v>119741</v>
+        <v>174625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,10 +3312,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="D11" s="7">
-        <v>122858</v>
+        <v>200483</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -3774,10 +3327,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>160</v>
+        <v>315</v>
       </c>
       <c r="I11" s="7">
-        <v>114740</v>
+        <v>217117</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3789,10 +3342,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>335</v>
+        <v>625</v>
       </c>
       <c r="N11" s="7">
-        <v>237598</v>
+        <v>417600</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3812,49 +3365,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="D12" s="7">
-        <v>84286</v>
+        <v>58461</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="H12" s="7">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="I12" s="7">
-        <v>78383</v>
+        <v>60553</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="N12" s="7">
-        <v>162669</v>
+        <v>119014</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,49 +3416,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>47492</v>
+        <v>28432</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>32814</v>
+        <v>31332</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="N13" s="7">
-        <v>80306</v>
+        <v>59763</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,49 +3467,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D14" s="7">
-        <v>85338</v>
+        <v>65033</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="I14" s="7">
-        <v>89287</v>
+        <v>72318</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="N14" s="7">
-        <v>174625</v>
+        <v>137351</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,10 +3518,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="D15" s="7">
-        <v>217117</v>
+        <v>151926</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -3980,10 +3533,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="I15" s="7">
-        <v>200483</v>
+        <v>164203</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3995,10 +3548,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>625</v>
+        <v>490</v>
       </c>
       <c r="N15" s="7">
-        <v>417600</v>
+        <v>316129</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4018,49 +3571,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D16" s="7">
-        <v>60553</v>
+        <v>79806</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="I16" s="7">
-        <v>58461</v>
+        <v>85934</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="N16" s="7">
-        <v>119014</v>
+        <v>165740</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,49 +3622,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7">
-        <v>31332</v>
+        <v>41168</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I17" s="7">
-        <v>28432</v>
+        <v>45738</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="N17" s="7">
-        <v>59763</v>
+        <v>86906</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,49 +3673,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D18" s="7">
-        <v>72318</v>
+        <v>87110</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="H18" s="7">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I18" s="7">
-        <v>65033</v>
+        <v>73335</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="M18" s="7">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N18" s="7">
-        <v>137351</v>
+        <v>160445</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,10 +3724,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="D19" s="7">
-        <v>164203</v>
+        <v>208084</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4186,10 +3739,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="I19" s="7">
-        <v>151926</v>
+        <v>205007</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4201,10 +3754,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="N19" s="7">
-        <v>316129</v>
+        <v>413092</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4218,55 +3771,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>118</v>
+        <v>378</v>
       </c>
       <c r="D20" s="7">
-        <v>85934</v>
+        <v>259708</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
-        <v>105</v>
+        <v>400</v>
       </c>
       <c r="I20" s="7">
-        <v>79806</v>
+        <v>277534</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>50</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
-        <v>223</v>
+        <v>778</v>
       </c>
       <c r="N20" s="7">
-        <v>165740</v>
+        <v>537242</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,49 +3828,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="D21" s="7">
-        <v>45738</v>
+        <v>121224</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="H21" s="7">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="I21" s="7">
-        <v>41168</v>
+        <v>155416</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>300</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
-        <v>117</v>
+        <v>399</v>
       </c>
       <c r="N21" s="7">
-        <v>86906</v>
+        <v>276641</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,49 +3879,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>97</v>
+        <v>453</v>
       </c>
       <c r="D22" s="7">
-        <v>73335</v>
+        <v>316674</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
-        <v>113</v>
+        <v>424</v>
       </c>
       <c r="I22" s="7">
-        <v>87110</v>
+        <v>301690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
-        <v>210</v>
+        <v>877</v>
       </c>
       <c r="N22" s="7">
-        <v>160445</v>
+        <v>618364</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,10 +3930,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>278</v>
+        <v>1005</v>
       </c>
       <c r="D23" s="7">
-        <v>205007</v>
+        <v>697606</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4392,10 +3945,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>272</v>
+        <v>1049</v>
       </c>
       <c r="I23" s="7">
-        <v>208084</v>
+        <v>734641</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4407,10 +3960,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>550</v>
+        <v>2054</v>
       </c>
       <c r="N23" s="7">
-        <v>413092</v>
+        <v>1432247</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4423,222 +3976,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>400</v>
-      </c>
-      <c r="D24" s="7">
-        <v>277534</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H24" s="7">
-        <v>378</v>
-      </c>
-      <c r="I24" s="7">
-        <v>259708</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M24" s="7">
-        <v>778</v>
-      </c>
-      <c r="N24" s="7">
-        <v>537242</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>225</v>
-      </c>
-      <c r="D25" s="7">
-        <v>155416</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H25" s="7">
-        <v>174</v>
-      </c>
-      <c r="I25" s="7">
-        <v>121224</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M25" s="7">
-        <v>399</v>
-      </c>
-      <c r="N25" s="7">
-        <v>276641</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>424</v>
-      </c>
-      <c r="D26" s="7">
-        <v>301690</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H26" s="7">
-        <v>453</v>
-      </c>
-      <c r="I26" s="7">
-        <v>316674</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="M26" s="7">
-        <v>877</v>
-      </c>
-      <c r="N26" s="7">
-        <v>618363</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1049</v>
-      </c>
-      <c r="D27" s="7">
-        <v>734641</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1005</v>
-      </c>
-      <c r="I27" s="7">
-        <v>697606</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2054</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1432246</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>179</v>
+      <c r="A24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4651,8 +3997,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7D5C8C-04A8-46CD-A334-4D49DEED4B5D}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029BA3B4-3508-49CC-A323-5F02E80899E8}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4668,7 +4014,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4769,49 +4115,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D4" s="7">
-        <v>6986</v>
+        <v>38910</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>9215</v>
+        <v>37573</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="N4" s="7">
-        <v>16201</v>
+        <v>76484</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,49 +4166,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7">
-        <v>1086</v>
+        <v>29523</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="I5" s="7">
-        <v>2616</v>
+        <v>37244</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="N5" s="7">
-        <v>3701</v>
+        <v>66767</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>354</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,49 +4217,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D6" s="7">
-        <v>17503</v>
+        <v>61042</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="H6" s="7">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="I6" s="7">
-        <v>9652</v>
+        <v>69372</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="M6" s="7">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="N6" s="7">
-        <v>27155</v>
+        <v>130414</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,10 +4268,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="D7" s="7">
-        <v>25574</v>
+        <v>129475</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4937,10 +4283,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="I7" s="7">
-        <v>21483</v>
+        <v>144190</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4952,10 +4298,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>53</v>
+        <v>371</v>
       </c>
       <c r="N7" s="7">
-        <v>47057</v>
+        <v>273665</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4975,49 +4321,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7">
-        <v>30588</v>
+        <v>58458</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I8" s="7">
-        <v>29695</v>
+        <v>66110</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="N8" s="7">
-        <v>60283</v>
+        <v>124568</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>316</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,49 +4372,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D9" s="7">
-        <v>36159</v>
+        <v>57610</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="H9" s="7">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="I9" s="7">
-        <v>26907</v>
+        <v>59142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>376</v>
+        <v>324</v>
       </c>
       <c r="M9" s="7">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="N9" s="7">
-        <v>63066</v>
+        <v>116752</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>102</v>
+        <v>325</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,49 +4423,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="D10" s="7">
-        <v>51870</v>
+        <v>87161</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="I10" s="7">
-        <v>51390</v>
+        <v>93876</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="M10" s="7">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="N10" s="7">
-        <v>103259</v>
+        <v>181037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,10 +4474,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>160</v>
+        <v>327</v>
       </c>
       <c r="D11" s="7">
-        <v>118616</v>
+        <v>203228</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5143,10 +4489,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>158</v>
+        <v>324</v>
       </c>
       <c r="I11" s="7">
-        <v>107992</v>
+        <v>219129</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5158,10 +4504,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>318</v>
+        <v>651</v>
       </c>
       <c r="N11" s="7">
-        <v>226608</v>
+        <v>422357</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5181,49 +4527,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D12" s="7">
-        <v>66110</v>
+        <v>46338</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="H12" s="7">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="I12" s="7">
-        <v>58458</v>
+        <v>50323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="M12" s="7">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="N12" s="7">
-        <v>124568</v>
+        <v>96660</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>396</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,49 +4578,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7">
-        <v>59142</v>
+        <v>47449</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>398</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7">
-        <v>57610</v>
+        <v>51683</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="N13" s="7">
-        <v>116752</v>
+        <v>99132</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,49 +4629,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="D14" s="7">
-        <v>93876</v>
+        <v>59202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="I14" s="7">
-        <v>87161</v>
+        <v>60105</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
-        <v>278</v>
+        <v>187</v>
       </c>
       <c r="N14" s="7">
-        <v>181037</v>
+        <v>119307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,10 +4680,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="D15" s="7">
-        <v>219129</v>
+        <v>152989</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5349,10 +4695,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>327</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>203228</v>
+        <v>162111</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5364,10 +4710,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>651</v>
+        <v>495</v>
       </c>
       <c r="N15" s="7">
-        <v>422357</v>
+        <v>315099</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5387,49 +4733,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7">
-        <v>50323</v>
+        <v>49872</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="H16" s="7">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I16" s="7">
-        <v>46338</v>
+        <v>46545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="N16" s="7">
-        <v>96660</v>
+        <v>96417</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,49 +4784,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7">
-        <v>51683</v>
+        <v>64477</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I17" s="7">
-        <v>47449</v>
+        <v>50139</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="N17" s="7">
-        <v>99132</v>
+        <v>114616</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,49 +4835,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="D18" s="7">
-        <v>60105</v>
+        <v>88020</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="H18" s="7">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="I18" s="7">
-        <v>59202</v>
+        <v>101281</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="M18" s="7">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="N18" s="7">
-        <v>119307</v>
+        <v>189301</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,10 +4886,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="D19" s="7">
-        <v>162111</v>
+        <v>202369</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5555,10 +4901,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="I19" s="7">
-        <v>152989</v>
+        <v>197965</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5570,10 +4916,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="N19" s="7">
-        <v>315099</v>
+        <v>400334</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5587,55 +4933,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>65</v>
+        <v>291</v>
       </c>
       <c r="D20" s="7">
-        <v>46545</v>
+        <v>193578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
-        <v>68</v>
+        <v>290</v>
       </c>
       <c r="I20" s="7">
-        <v>49872</v>
+        <v>200551</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="M20" s="7">
-        <v>133</v>
+        <v>581</v>
       </c>
       <c r="N20" s="7">
-        <v>96417</v>
+        <v>394129</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,49 +4990,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="D21" s="7">
-        <v>50139</v>
+        <v>199058</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>447</v>
+        <v>295</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>448</v>
+        <v>394</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>449</v>
+        <v>368</v>
       </c>
       <c r="H21" s="7">
-        <v>89</v>
+        <v>288</v>
       </c>
       <c r="I21" s="7">
-        <v>64477</v>
+        <v>198209</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>450</v>
+        <v>82</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>452</v>
+        <v>396</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>590</v>
       </c>
       <c r="N21" s="7">
-        <v>114616</v>
+        <v>397267</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>455</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,49 +5041,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>141</v>
+        <v>443</v>
       </c>
       <c r="D22" s="7">
-        <v>101281</v>
+        <v>295425</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H22" s="7">
         <v>456</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H22" s="7">
-        <v>117</v>
-      </c>
       <c r="I22" s="7">
-        <v>88020</v>
+        <v>324634</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
-        <v>258</v>
+        <v>899</v>
       </c>
       <c r="N22" s="7">
-        <v>189301</v>
+        <v>620059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,10 +5092,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>279</v>
+        <v>1036</v>
       </c>
       <c r="D23" s="7">
-        <v>197965</v>
+        <v>688060</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -5761,10 +5107,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>274</v>
+        <v>1034</v>
       </c>
       <c r="I23" s="7">
-        <v>202369</v>
+        <v>723394</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5776,10 +5122,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>553</v>
+        <v>2070</v>
       </c>
       <c r="N23" s="7">
-        <v>400334</v>
+        <v>1411455</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -5792,222 +5138,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>290</v>
-      </c>
-      <c r="D24" s="7">
-        <v>200551</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H24" s="7">
-        <v>291</v>
-      </c>
-      <c r="I24" s="7">
-        <v>193578</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" s="7">
-        <v>581</v>
-      </c>
-      <c r="N24" s="7">
-        <v>394129</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>288</v>
-      </c>
-      <c r="D25" s="7">
-        <v>198209</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="H25" s="7">
-        <v>302</v>
-      </c>
-      <c r="I25" s="7">
-        <v>199058</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="M25" s="7">
-        <v>590</v>
-      </c>
-      <c r="N25" s="7">
-        <v>397267</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>456</v>
-      </c>
-      <c r="D26" s="7">
-        <v>324634</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="H26" s="7">
-        <v>443</v>
-      </c>
-      <c r="I26" s="7">
-        <v>295425</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="M26" s="7">
-        <v>899</v>
-      </c>
-      <c r="N26" s="7">
-        <v>620059</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1034</v>
-      </c>
-      <c r="D27" s="7">
-        <v>723394</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1036</v>
-      </c>
-      <c r="I27" s="7">
-        <v>688060</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2070</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1411455</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>179</v>
+      <c r="A24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
